--- a/src/assets/Template/Ulinkit-template-common.xlsx
+++ b/src/assets/Template/Ulinkit-template-common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulink\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulink\Template\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6146A-E273-4183-AAD9-20E54966F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56816B7E-2212-4E22-B77C-DC4D0F07069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="214">
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/61cliBBijoL._AC_UL232_SR232,232_.jpg</t>
   </si>
@@ -286,9 +286,6 @@
     <t>UPC</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>brandName</t>
   </si>
   <si>
@@ -512,13 +509,172 @@
   </si>
   <si>
     <t>reregerger</t>
+  </si>
+  <si>
+    <t>Image Url 1</t>
+  </si>
+  <si>
+    <t>Image Url 3</t>
+  </si>
+  <si>
+    <t>Image Url 4</t>
+  </si>
+  <si>
+    <t>Image Url 5</t>
+  </si>
+  <si>
+    <t>Bullet Points</t>
+  </si>
+  <si>
+    <t>Dimension Unit</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Height</t>
+  </si>
+  <si>
+    <t>Product Length</t>
+  </si>
+  <si>
+    <t>Product Width</t>
+  </si>
+  <si>
+    <t>Product Weight</t>
+  </si>
+  <si>
+    <t>Product Weight Unit</t>
+  </si>
+  <si>
+    <t>Available Quantity</t>
+  </si>
+  <si>
+    <t>Minimum Order Quantity</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Private Label</t>
+  </si>
+  <si>
+    <t>Transportation Mode</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Buy Now</t>
+  </si>
+  <si>
+    <t>Carton Height</t>
+  </si>
+  <si>
+    <t>Carton Length</t>
+  </si>
+  <si>
+    <t>Carton Width</t>
+  </si>
+  <si>
+    <t>Carton Weight</t>
+  </si>
+  <si>
+    <t>Carton Weight Unit</t>
+  </si>
+  <si>
+    <t>Carton Length Unit</t>
+  </si>
+  <si>
+    <t>Carton Height Unit</t>
+  </si>
+  <si>
+    <t>Carton Width Unit</t>
+  </si>
+  <si>
+    <t>Dangerous Goods</t>
+  </si>
+  <si>
+    <t>EAN (European Article Number)</t>
+  </si>
+  <si>
+    <t>Image Url 2</t>
+  </si>
+  <si>
+    <t>SKU (Stock Keeping Unit)</t>
+  </si>
+  <si>
+    <t>HSN (Harmonized System of Nomenclature) Code</t>
+  </si>
+  <si>
+    <t>Incoterm</t>
+  </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Key Words</t>
+  </si>
+  <si>
+    <t>Ready To Ship</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Size Unit</t>
+  </si>
+  <si>
+    <t>Unit Measure</t>
+  </si>
+  <si>
+    <t>Units Per Carton</t>
+  </si>
+  <si>
+    <t>Variant Color</t>
+  </si>
+  <si>
+    <t>Variant Size</t>
+  </si>
+  <si>
+    <t>Image Name</t>
+  </si>
+  <si>
+    <t>Image Name 5</t>
+  </si>
+  <si>
+    <t>Image Name 4</t>
+  </si>
+  <si>
+    <t>Image Name 2</t>
+  </si>
+  <si>
+    <t>Image Name 3</t>
+  </si>
+  <si>
+    <t>Product ID Type</t>
+  </si>
+  <si>
+    <t>Product ID Number</t>
+  </si>
+  <si>
+    <t>Order Dispatch Time</t>
+  </si>
+  <si>
+    <t>ASIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,12 +688,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -554,8 +704,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,7 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,31 +756,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -934,885 +1114,1062 @@
     <col min="4" max="4" width="15.59765625" customWidth="1"/>
     <col min="5" max="7" width="15.8984375" customWidth="1"/>
     <col min="8" max="13" width="18.296875" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" customWidth="1"/>
+    <col min="14" max="14" width="23.3984375" customWidth="1"/>
+    <col min="15" max="15" width="20.796875" customWidth="1"/>
+    <col min="16" max="16" width="27.296875" customWidth="1"/>
     <col min="17" max="17" width="12.69921875" customWidth="1"/>
-    <col min="18" max="18" width="10.69921875" style="4" customWidth="1"/>
-    <col min="19" max="20" width="15.796875" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="27.09765625" customWidth="1"/>
+    <col min="20" max="20" width="15.796875" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
     <col min="22" max="22" width="14.8984375" customWidth="1"/>
-    <col min="23" max="31" width="14" customWidth="1"/>
-    <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="15.8984375" customWidth="1"/>
-    <col min="34" max="34" width="16.796875" customWidth="1"/>
-    <col min="35" max="48" width="16.8984375" customWidth="1"/>
+    <col min="23" max="23" width="23.3984375" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="20.796875" customWidth="1"/>
+    <col min="26" max="26" width="16.09765625" customWidth="1"/>
+    <col min="27" max="27" width="14.796875" customWidth="1"/>
+    <col min="28" max="28" width="17.19921875" customWidth="1"/>
+    <col min="29" max="29" width="17.3984375" customWidth="1"/>
+    <col min="30" max="30" width="17.5" customWidth="1"/>
+    <col min="31" max="31" width="17.59765625" customWidth="1"/>
+    <col min="32" max="32" width="21.5" customWidth="1"/>
+    <col min="33" max="33" width="20.59765625" customWidth="1"/>
+    <col min="34" max="34" width="21.69921875" customWidth="1"/>
+    <col min="35" max="35" width="21.796875" customWidth="1"/>
+    <col min="36" max="36" width="22.296875" customWidth="1"/>
+    <col min="37" max="37" width="34.796875" customWidth="1"/>
+    <col min="38" max="38" width="50.59765625" customWidth="1"/>
+    <col min="39" max="41" width="16.8984375" customWidth="1"/>
+    <col min="42" max="42" width="18.19921875" customWidth="1"/>
+    <col min="43" max="45" width="16.8984375" customWidth="1"/>
+    <col min="46" max="46" width="19.59765625" customWidth="1"/>
+    <col min="47" max="48" width="16.8984375" customWidth="1"/>
     <col min="49" max="49" width="14.5" customWidth="1"/>
     <col min="50" max="50" width="16.19921875" customWidth="1"/>
-    <col min="51" max="51" width="16.3984375" customWidth="1"/>
-    <col min="52" max="52" width="16.19921875" customWidth="1"/>
-    <col min="53" max="53" width="15.796875" customWidth="1"/>
+    <col min="51" max="52" width="17.59765625" customWidth="1"/>
+    <col min="53" max="53" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:53" s="10" customFormat="1" ht="36.6" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="9" customFormat="1" ht="13.8" hidden="1">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="J3" s="6">
+        <v>4354</v>
+      </c>
+      <c r="K3" s="6">
+        <v>4565</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5676</v>
+      </c>
+      <c r="M3" s="6">
+        <v>445</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="2">
+        <v>437</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5343</v>
+      </c>
+      <c r="R3" s="2">
+        <v>6435</v>
+      </c>
+      <c r="S3" s="2">
+        <v>346646433</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="2">
+        <v>45</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>436466464432</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>345</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>325</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>565</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>4646</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>767867</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>4354435</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>23</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>33</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>3443</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4354</v>
+      </c>
+      <c r="K4" s="6">
+        <v>4565</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5465</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5446</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="2">
+        <v>342</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3432</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4564</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4646346346</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="2">
+        <v>44</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>34545454</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>435.45400000000001</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>4565</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>77885</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>34454</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>345.4</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>434</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4354.5600000000004</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5645</v>
+      </c>
+      <c r="L5" s="6">
+        <v>56754</v>
+      </c>
+      <c r="M5" s="6">
+        <v>464</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2">
+        <v>323</v>
+      </c>
+      <c r="P5" s="2">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q5" s="2">
+        <v>5415</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6455</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44643643634</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="2">
+        <v>23</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>34545454</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>245</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>445</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>8789698</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>57456</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>3454</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>454</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5757</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5656</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5475</v>
+      </c>
+      <c r="M6" s="6">
+        <v>565</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2">
+        <v>234</v>
+      </c>
+      <c r="P6" s="2">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="Q6" s="2">
+        <v>3452</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4456</v>
+      </c>
+      <c r="S6" s="2">
+        <v>457546464</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="2">
+        <v>34</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>564</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>3454</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="8">
-        <v>4354</v>
-      </c>
-      <c r="K2" s="8">
-        <v>4565</v>
-      </c>
-      <c r="L2" s="8">
-        <v>5676</v>
-      </c>
-      <c r="M2" s="8">
-        <v>445</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="4">
-        <v>437</v>
-      </c>
-      <c r="P2" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>5343</v>
-      </c>
-      <c r="R2" s="4">
-        <v>6435</v>
-      </c>
-      <c r="S2" s="4">
-        <v>346646433</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="4">
+      <c r="AI6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>987889</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>35454</v>
+      </c>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>34</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>3324</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>454</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>436466464432</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>345</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>325</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>565</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>4646</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>767867</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>4354435</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>23</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT2" s="4">
-        <v>33</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV2" s="4">
-        <v>3443</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="8">
-        <v>4354</v>
-      </c>
-      <c r="K3" s="8">
-        <v>4565</v>
-      </c>
-      <c r="L3" s="8">
-        <v>5465</v>
-      </c>
-      <c r="M3" s="8">
-        <v>5446</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="4">
-        <v>342</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>3432</v>
-      </c>
-      <c r="R3" s="4">
-        <v>4564</v>
-      </c>
-      <c r="S3" s="4">
-        <v>4646346346</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" s="4">
-        <v>44</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>34545454</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>435.45400000000001</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>4565</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>443</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>77885</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>34454</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>345.4</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>434</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4354.5600000000004</v>
-      </c>
-      <c r="K4" s="8">
-        <v>5645</v>
-      </c>
-      <c r="L4" s="8">
-        <v>56754</v>
-      </c>
-      <c r="M4" s="8">
-        <v>464</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="4">
-        <v>323</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5415</v>
-      </c>
-      <c r="R4" s="4">
-        <v>6455</v>
-      </c>
-      <c r="S4" s="4">
-        <v>44643643634</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="4">
-        <v>23</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>34545454</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>245</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>445</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>44</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>8789698</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>57456</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>3454</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>34</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>454</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="8">
-        <v>5757</v>
-      </c>
-      <c r="K5" s="8">
-        <v>5656</v>
-      </c>
-      <c r="L5" s="8">
-        <v>5475</v>
-      </c>
-      <c r="M5" s="8">
-        <v>565</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="4">
-        <v>234</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>3452</v>
-      </c>
-      <c r="R5" s="4">
-        <v>4456</v>
-      </c>
-      <c r="S5" s="4">
-        <v>457546464</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="4">
-        <v>34</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>564</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>34</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>3454</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>987889</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>35454</v>
-      </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>34</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT5" s="4">
-        <v>3324</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV5" s="4">
-        <v>454</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BA6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="2"/>
-    </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Bullet points are separated by a full stop (.)" sqref="F1:F1048576" xr:uid="{8335CBEE-CD4D-4268-A6D9-3C790854DFE3}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576 AT1:AT1048576" xr:uid="{0DB80A98-0DEB-448B-AC87-491DF21771D6}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Bullet points are separated by a full stop (.)" sqref="F3:F1048576" xr:uid="{8335CBEE-CD4D-4268-A6D9-3C790854DFE3}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT1048576 O3:O1048576" xr:uid="{0DB80A98-0DEB-448B-AC87-491DF21771D6}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Min order quantity should be less than available quantity." sqref="P1:P1048576" xr:uid="{C1F51CA3-A2D6-4D3C-A4EF-12672B060EDA}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Min order quantity should be less than available quantity." sqref="P3:P1048576" xr:uid="{C1F51CA3-A2D6-4D3C-A4EF-12672B060EDA}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sale price should be less than unit price." sqref="Q1:Q1048576" xr:uid="{402B92E8-DC60-44C6-9C9F-CCD1F2176B3A}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sale price should be less than unit price." sqref="Q3:Q1048576" xr:uid="{402B92E8-DC60-44C6-9C9F-CCD1F2176B3A}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="( In days )" sqref="W1:W1048576" xr:uid="{AC40DA46-FEE1-4455-B083-25B713A2364A}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="( In days )" sqref="W3:W1048576" xr:uid="{AC40DA46-FEE1-4455-B083-25B713A2364A}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="IF Type: UPC then Length: 12_x000a_IF Type: EAN then Length: 8 OR 13_x000a_IF Type: GTIN then Length: 8 OR 12 OR 13 OR 14_x000a_" sqref="Y1:Y1048576" xr:uid="{8BCC376A-376B-4BCB-B15C-E0F2272236AF}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="IF Type: UPC then Length: 12_x000a_IF Type: EAN then Length: 8 OR 13_x000a_IF Type: GTIN then Length: 8 OR 12 OR 13 OR 14_x000a_" sqref="Y3:Y1048576" xr:uid="{8BCC376A-376B-4BCB-B15C-E0F2272236AF}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{12A32B0A-D443-4CDA-A47F-4001D811CDED}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576" xr:uid="{12A32B0A-D443-4CDA-A47F-4001D811CDED}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Keywords are separated by a comma (,)" sqref="AO1:AO1048576" xr:uid="{5C716FE3-ECAF-4B22-A067-A1DEC3509CC1}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:M1048576 AB1:AE1048576 AQ1:AQ1048576" xr:uid="{75A660EB-991E-4E87-A11F-8659FA3F7C44}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Keywords are separated by a comma (,)" sqref="AO3:AO1048576" xr:uid="{5C716FE3-ECAF-4B22-A067-A1DEC3509CC1}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AE1048576 AQ3:AQ1048576 J3:M1048576" xr:uid="{75A660EB-991E-4E87-A11F-8659FA3F7C44}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Should be a unique identifier for each product." sqref="S1:S1048576" xr:uid="{5F09F037-47C1-417B-8A0D-DFCFB46AA814}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Should be a unique identifier for each product." sqref="S3:S1048576" xr:uid="{5F09F037-47C1-417B-8A0D-DFCFB46AA814}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{E69013E8-E2E9-457A-8545-6D600D9B8AC5}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{1F4D4687-B439-48E1-B4C4-D39F1B6D26C4}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{12AD1703-FCF8-4D84-951D-1B0FEEFBBF31}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{EEEB0120-FA01-4CD9-B098-E9289F443B8B}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{D6C32D00-577C-4726-B50E-1BE2040A3B26}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{A0C33699-7B19-4DA0-9BBF-1C2E2AFDC748}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{42EB7655-4C72-4163-8A31-258CDC089605}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{E0819D87-2854-4F17-A183-730154F4507A}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{F0FD7F42-24E9-4B40-BD9E-CF489D61F0F9}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{58A504F2-7B73-490F-B1EE-81B225DD72F8}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{788B8FCC-3DE2-4CC7-89F7-325682F888A2}"/>
-    <hyperlink ref="D5" r:id="rId16" xr:uid="{28780571-F068-44E2-9A3F-C50FABB3E561}"/>
-    <hyperlink ref="E2" r:id="rId17" xr:uid="{CB7AF469-3428-4395-8603-FEE007691251}"/>
-    <hyperlink ref="E3" r:id="rId18" xr:uid="{7AC0A6D8-EAD4-4694-A96B-486247E8891C}"/>
-    <hyperlink ref="E4" r:id="rId19" xr:uid="{3BA84502-75B8-4628-89F7-8877DB14C54F}"/>
-    <hyperlink ref="E5" r:id="rId20" xr:uid="{46CAECEF-5BA4-4732-A6A1-521A7C56EEDB}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{E69013E8-E2E9-457A-8545-6D600D9B8AC5}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{1F4D4687-B439-48E1-B4C4-D39F1B6D26C4}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{12AD1703-FCF8-4D84-951D-1B0FEEFBBF31}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{EEEB0120-FA01-4CD9-B098-E9289F443B8B}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{D6C32D00-577C-4726-B50E-1BE2040A3B26}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{A0C33699-7B19-4DA0-9BBF-1C2E2AFDC748}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{42EB7655-4C72-4163-8A31-258CDC089605}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{E0819D87-2854-4F17-A183-730154F4507A}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{F0FD7F42-24E9-4B40-BD9E-CF489D61F0F9}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{58A504F2-7B73-490F-B1EE-81B225DD72F8}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{788B8FCC-3DE2-4CC7-89F7-325682F888A2}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{28780571-F068-44E2-9A3F-C50FABB3E561}"/>
+    <hyperlink ref="E3" r:id="rId17" xr:uid="{CB7AF469-3428-4395-8603-FEE007691251}"/>
+    <hyperlink ref="E4" r:id="rId18" xr:uid="{7AC0A6D8-EAD4-4694-A96B-486247E8891C}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{3BA84502-75B8-4628-89F7-8877DB14C54F}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{46CAECEF-5BA4-4732-A6A1-521A7C56EEDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId21"/>
@@ -1823,49 +2180,49 @@
           <x14:formula1>
             <xm:f>Data!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175C2493-91AD-4E16-8BFA-F995C5386A94}">
           <x14:formula1>
             <xm:f>Data!$B$5:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AG1:AI1048576 H1:H1048576</xm:sqref>
+          <xm:sqref>H3:H1048576 AG3:AI1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FBF319D-B2C0-41DA-988A-272CA80E8F3D}">
           <x14:formula1>
             <xm:f>Data!$B$9:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:T1048576 AP1:AP1048576 AJ1:AJ1048576 AA1:AA1048576</xm:sqref>
+          <xm:sqref>AP3:AP1048576 AJ3:AJ1048576 AA3:AA1048576 T3:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{675D82EB-8571-4828-89F9-3C421C474959}">
           <x14:formula1>
             <xm:f>Data!$B$12:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>U1:U1048576</xm:sqref>
+          <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C40F7A93-9644-4316-B670-0E71FD837D18}">
           <x14:formula1>
             <xm:f>Data!$B$18:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:X1048576</xm:sqref>
+          <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B0CB723-587E-4FE7-805E-41EF0A6FF31B}">
           <x14:formula1>
             <xm:f>Data!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AF1:AF1048576 N1:N1048576</xm:sqref>
+          <xm:sqref>N3:N1048576 AF3:AF1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F61C71D-6D0F-48C2-A3AB-CEC1D19AEF7F}">
           <x14:formula1>
             <xm:f>Data!$D$7:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AM1:AM1048576</xm:sqref>
+          <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{486B1678-707A-4ECA-B539-CA79672FBBB5}">
           <x14:formula1>
             <xm:f>Data!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>AR1:AR1048576 AS2:AS1048576</xm:sqref>
+          <xm:sqref>AS3:AS1048576 AR3:AR1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1878,7 +2235,7 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1889,191 +2246,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="11" spans="2:4">
+      <c r="C11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+    <row r="17" spans="2:4">
+      <c r="D17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="D17" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="D22" s="4"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="D23" s="4"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/Template/Ulinkit-template-common.xlsx
+++ b/src/assets/Template/Ulinkit-template-common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulink\Template\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56816B7E-2212-4E22-B77C-DC4D0F07069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF51653A-67E6-4CEF-830D-85153A57717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="220">
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/61cliBBijoL._AC_UL232_SR232,232_.jpg</t>
   </si>
@@ -668,6 +668,24 @@
   </si>
   <si>
     <t>ASIN</t>
+  </si>
+  <si>
+    <t>Storage Temperature</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>chilled</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>roomtemperature</t>
+  </si>
+  <si>
+    <t>frozen</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA10"/>
+  <dimension ref="A1:BB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1144,13 +1162,15 @@
     <col min="43" max="45" width="16.8984375" customWidth="1"/>
     <col min="46" max="46" width="19.59765625" customWidth="1"/>
     <col min="47" max="48" width="16.8984375" customWidth="1"/>
-    <col min="49" max="49" width="14.5" customWidth="1"/>
-    <col min="50" max="50" width="16.19921875" customWidth="1"/>
-    <col min="51" max="52" width="17.59765625" customWidth="1"/>
-    <col min="53" max="53" width="15.69921875" customWidth="1"/>
+    <col min="49" max="49" width="25.59765625" customWidth="1"/>
+    <col min="50" max="50" width="14.5" customWidth="1"/>
+    <col min="51" max="51" width="17.59765625" customWidth="1"/>
+    <col min="52" max="52" width="15.69921875" customWidth="1"/>
+    <col min="53" max="53" width="17.59765625" customWidth="1"/>
+    <col min="54" max="54" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="10" customFormat="1" ht="36.6" customHeight="1">
+    <row r="1" spans="1:54" s="10" customFormat="1" ht="36.6" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -1296,22 +1316,25 @@
         <v>204</v>
       </c>
       <c r="AW1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX1" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB1" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AY1" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" ht="13.8" hidden="1">
+    </row>
+    <row r="2" spans="1:54" s="9" customFormat="1" ht="13.8">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1456,23 +1479,26 @@
       <c r="AV2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53">
+    </row>
+    <row r="3" spans="1:54">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1618,22 +1644,25 @@
         <v>3443</v>
       </c>
       <c r="AW3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" s="5" t="s">
+      <c r="AY3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AY3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
+    </row>
+    <row r="4" spans="1:54">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1777,22 +1806,25 @@
         <v>434</v>
       </c>
       <c r="AW4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="5" t="s">
+      <c r="AY4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AY4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
+    </row>
+    <row r="5" spans="1:54">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1938,22 +1970,25 @@
         <v>454</v>
       </c>
       <c r="AW5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AY5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
+    </row>
+    <row r="6" spans="1:54">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,31 +2130,34 @@
         <v>454</v>
       </c>
       <c r="AW6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AX6" s="5" t="s">
+      <c r="AY6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AY6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
+    </row>
+    <row r="7" spans="1:54">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
@@ -2175,7 +2213,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D6812A9-82DB-4084-8797-18E49A3502C4}">
           <x14:formula1>
             <xm:f>Data!$B$2:$B$4</xm:f>
@@ -2222,7 +2260,13 @@
           <x14:formula1>
             <xm:f>Data!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>AS3:AS1048576 AR3:AR1048576</xm:sqref>
+          <xm:sqref>AR3:AS1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D174CA83-E3A1-42F0-A68D-87947C642590}">
+          <x14:formula1>
+            <xm:f>Data!$C$16:$C$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>AW1:AW1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2235,13 +2279,13 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2388,12 +2432,17 @@
       <c r="B16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4">
+      <c r="C17" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>118</v>
       </c>
@@ -2402,14 +2451,18 @@
       <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4">
